--- a/마테리아 수치.xlsx
+++ b/마테리아 수치.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="마테리아 등급별 장착 제한" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -499,7 +497,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,9 +526,15 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -539,9 +543,15 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -550,9 +560,15 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -561,9 +577,15 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -572,12 +594,19 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>